--- a/configure/table/error_code.xlsx
+++ b/configure/table/error_code.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12840"/>
+    <workbookView windowWidth="30240" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="错误码" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <t>E|错误类型-成功|ErrorCode|Success|0</t>
   </si>
   <si>
-    <t>enum|错误码</t>
+    <t>@enum|错误码</t>
   </si>
 </sst>
 </file>
@@ -988,8 +988,8 @@
   <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
@@ -1018,8 +1018,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.4"/>
